--- a/Bug List.xlsx
+++ b/Bug List.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
     <sheet name="v1.0.0.1" sheetId="2" r:id="rId2"/>
+    <sheet name="v.1.0.0.2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>NORMAL TRANSACTION</t>
   </si>
@@ -90,6 +91,9 @@
   </si>
   <si>
     <t>print out summary untuk tutup toko, perlu pendapatan piutang?</t>
+  </si>
+  <si>
+    <t>Barcode tidak perlu dimasukkan dalam impor stok opname</t>
   </si>
 </sst>
 </file>
@@ -533,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,4 +1005,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>